--- a/data2/cov_file10.xlsx
+++ b/data2/cov_file10.xlsx
@@ -441,47 +441,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ISRG</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>BKNG</t>
+          <t>CPRT</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>ODFL</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>CDW</t>
+          <t>TTWO</t>
         </is>
       </c>
     </row>
@@ -490,319 +490,319 @@
         <v>0.000784428506033554</v>
       </c>
       <c r="B2" t="n">
-        <v>9.688116035111255e-05</v>
+        <v>0.000170155139836861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001561338840755799</v>
+        <v>0.0002574448413506031</v>
       </c>
       <c r="D2" t="n">
-        <v>8.109732576151462e-05</v>
+        <v>0.0002246164959854046</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0002574448413506031</v>
+        <v>3.752108817673797e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0001800336364155429</v>
+        <v>0.0001144554716921754</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000200179785380969</v>
+        <v>0.0001328217229364939</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001731852169452827</v>
+        <v>0.0001165887813600506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002246164959854046</v>
+        <v>0.0001040497852246257</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001632482374421018</v>
+        <v>0.000176057399160854</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.688116035111255e-05</v>
+        <v>0.000170155139836861</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0003061590590938579</v>
+        <v>0.000280422593442692</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001588028522848285</v>
+        <v>0.0001950373271269239</v>
       </c>
       <c r="D3" t="n">
-        <v>7.065119459457151e-05</v>
+        <v>0.0001519669960765796</v>
       </c>
       <c r="E3" t="n">
-        <v>9.729645081542633e-05</v>
+        <v>0.0001089186065153538</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001443744648563347</v>
+        <v>9.458787866593036e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001261820142958194</v>
+        <v>0.0001146540332685281</v>
       </c>
       <c r="H3" t="n">
-        <v>9.619133175218952e-05</v>
+        <v>9.711748203702043e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>8.290783140633536e-05</v>
+        <v>9.813428650861632e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>5.979262219079165e-05</v>
+        <v>0.0001149587516043699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0001561338840755799</v>
+        <v>0.0002574448413506031</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0001588028522848285</v>
+        <v>0.0001950373271269239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007825659833719144</v>
+        <v>0.0003773915897928752</v>
       </c>
       <c r="D4" t="n">
-        <v>8.975150119732465e-05</v>
+        <v>0.000186088427874784</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001553735810231604</v>
+        <v>0.0001134300629144927</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001999641148835919</v>
+        <v>0.0001071421403742884</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001251562546621286</v>
+        <v>0.0001145072192342935</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001228199229883194</v>
+        <v>0.0001386124544080467</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001036421334831566</v>
+        <v>0.0001294802036509755</v>
       </c>
       <c r="J4" t="n">
-        <v>8.453358421039553e-05</v>
+        <v>0.000130119112320719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.109732576151462e-05</v>
+        <v>0.0002246164959854046</v>
       </c>
       <c r="B5" t="n">
-        <v>7.065119459457151e-05</v>
+        <v>0.0001519669960765796</v>
       </c>
       <c r="C5" t="n">
-        <v>8.975150119732465e-05</v>
+        <v>0.000186088427874784</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001764853385189926</v>
+        <v>0.0005166051245922454</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001010922215060343</v>
+        <v>0.0001178951418120495</v>
       </c>
       <c r="F5" t="n">
-        <v>9.157352389272003e-05</v>
+        <v>9.383946252063866e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>9.567494702701031e-05</v>
+        <v>9.149079095354809e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>8.334352797711204e-05</v>
+        <v>0.0001105718322126503</v>
       </c>
       <c r="I5" t="n">
-        <v>8.166975560130157e-05</v>
+        <v>6.897282735931797e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>5.95747292101187e-05</v>
+        <v>6.654761037497112e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0002574448413506031</v>
+        <v>3.752108817673797e-05</v>
       </c>
       <c r="B6" t="n">
-        <v>9.729645081542633e-05</v>
+        <v>0.0001089186065153538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001553735810231604</v>
+        <v>0.0001134300629144927</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0001010922215060343</v>
+        <v>0.0001178951418120495</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003773915897928752</v>
+        <v>0.0006066825288226584</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001673560169270253</v>
+        <v>9.549714369075427e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002513426029570402</v>
+        <v>3.496082586396086e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001599062784395561</v>
+        <v>0.0001168326620452879</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000186088427874784</v>
+        <v>7.359251742508769e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001297100280997088</v>
+        <v>4.522390007406323e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0001800336364155429</v>
+        <v>0.0001144554716921754</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0001443744648563347</v>
+        <v>9.458787866593036e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001999641148835919</v>
+        <v>0.0001071421403742884</v>
       </c>
       <c r="D7" t="n">
-        <v>9.157352389272003e-05</v>
+        <v>9.383946252063866e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001673560169270253</v>
+        <v>9.549714369075427e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003521300077624838</v>
+        <v>0.0001853136855534976</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001560080956149769</v>
+        <v>6.020909399907502e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001303170069282104</v>
+        <v>9.713377312792462e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001226285681911895</v>
+        <v>5.632898115086384e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>9.085261431096576e-05</v>
+        <v>9.909559403065257e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.000200179785380969</v>
+        <v>0.0001328217229364939</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0001261820142958194</v>
+        <v>0.0001146540332685281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001251562546621286</v>
+        <v>0.0001145072192342935</v>
       </c>
       <c r="D8" t="n">
-        <v>9.567494702701031e-05</v>
+        <v>9.149079095354809e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002513426029570402</v>
+        <v>3.496082586396086e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001560080956149769</v>
+        <v>6.020909399907502e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003117043581336753</v>
+        <v>0.0003455978442222556</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001647835279387707</v>
+        <v>4.25676616899484e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001855595838869353</v>
+        <v>9.830784052070385e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001079008989909443</v>
+        <v>6.415986814695484e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0001731852169452827</v>
+        <v>0.0001165887813600506</v>
       </c>
       <c r="B9" t="n">
-        <v>9.619133175218952e-05</v>
+        <v>9.711748203702043e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001228199229883194</v>
+        <v>0.0001386124544080467</v>
       </c>
       <c r="D9" t="n">
-        <v>8.334352797711204e-05</v>
+        <v>0.0001105718322126503</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001599062784395561</v>
+        <v>0.0001168326620452879</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001303170069282104</v>
+        <v>9.713377312792462e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001647835279387707</v>
+        <v>4.25676616899484e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002051168422190732</v>
+        <v>0.0002855030574175422</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001372502782655317</v>
+        <v>6.834761239443235e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>8.738008208874027e-05</v>
+        <v>9.672607405638145e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0002246164959854046</v>
+        <v>0.0001040497852246257</v>
       </c>
       <c r="B10" t="n">
-        <v>8.290783140633536e-05</v>
+        <v>9.813428650861632e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001036421334831566</v>
+        <v>0.0001294802036509755</v>
       </c>
       <c r="D10" t="n">
-        <v>8.166975560130157e-05</v>
+        <v>6.897282735931797e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000186088427874784</v>
+        <v>7.359251742508769e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0001226285681911895</v>
+        <v>5.632898115086384e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001855595838869353</v>
+        <v>9.830784052070385e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001372502782655317</v>
+        <v>6.834761239443235e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0005166051245922454</v>
+        <v>0.0002555424420359414</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001032556483210425</v>
+        <v>8.464149705302056e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0001632482374421018</v>
+        <v>0.000176057399160854</v>
       </c>
       <c r="B11" t="n">
-        <v>5.979262219079165e-05</v>
+        <v>0.0001149587516043699</v>
       </c>
       <c r="C11" t="n">
-        <v>8.453358421039553e-05</v>
+        <v>0.000130119112320719</v>
       </c>
       <c r="D11" t="n">
-        <v>5.95747292101187e-05</v>
+        <v>6.654761037497112e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001297100280997088</v>
+        <v>4.522390007406323e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>9.085261431096576e-05</v>
+        <v>9.909559403065257e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001079008989909443</v>
+        <v>6.415986814695484e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>8.738008208874027e-05</v>
+        <v>9.672607405638145e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001032556483210425</v>
+        <v>8.464149705302056e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000222323904631222</v>
+        <v>0.0003466594725655404</v>
       </c>
     </row>
   </sheetData>
